--- a/dicionario_dados/Dicionário de Dados.xlsx
+++ b/dicionario_dados/Dicionário de Dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D0C153-6361-4B62-A853-905CE6858ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA063883-7F1A-4FF5-AF5B-381B9D99F68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="138">
   <si>
     <t>Tabela</t>
   </si>
@@ -390,32 +390,71 @@
     <t>Código do Endereço</t>
   </si>
   <si>
-    <t>idx_cliente</t>
-  </si>
-  <si>
-    <t>cliente(cd_cliente)</t>
-  </si>
-  <si>
-    <t>idx_endereco</t>
-  </si>
-  <si>
-    <t>cliente(id_endereco) INCLUDE(cd_cliente, nm_cliente)</t>
-  </si>
-  <si>
-    <t>idx_veiculos</t>
-  </si>
-  <si>
-    <t>idx_aluguel</t>
-  </si>
-  <si>
-    <t>aluguel(id_aluguel)</t>
+    <t>idx_endereco_rua</t>
+  </si>
+  <si>
+    <t>endereco(rua) INCLUDE(id_endereco, cidade, bairro);</t>
+  </si>
+  <si>
+    <t>idx_cliente_endereco</t>
+  </si>
+  <si>
+    <t>cliente(id_endereco) INCLUDE(cd_cliente, nm_cliente);</t>
+  </si>
+  <si>
+    <t>cliente(telefone) INCLUDE(cd_cliente, email, cpf);</t>
+  </si>
+  <si>
+    <t>idx_cliente_telefone</t>
+  </si>
+  <si>
+    <t>veiculos(id_modelo) INCLUDE(placa, id_cor);</t>
+  </si>
+  <si>
+    <t>idx_veiculos_modelo</t>
+  </si>
+  <si>
+    <t>aluguel(cd_cliente) INCLUDE(id_aluguel, placa);</t>
+  </si>
+  <si>
+    <t>aluguel(id_pagamento) INCLUDE(id_aluguel, valor);</t>
+  </si>
+  <si>
+    <t>idx_aluguel_cliente</t>
+  </si>
+  <si>
+    <t>idx_aluguel_pagamento</t>
+  </si>
+  <si>
+    <t>pk_marca_id_marca</t>
+  </si>
+  <si>
+    <t>pk_modelo_id_modelo</t>
+  </si>
+  <si>
+    <t>pk_cliente_cd_cliente</t>
+  </si>
+  <si>
+    <t>pk_endereco_id_endereco</t>
+  </si>
+  <si>
+    <t>pk_veiculos_placa</t>
+  </si>
+  <si>
+    <t>pk_aluguel_id_aluguel</t>
+  </si>
+  <si>
+    <t>pk_forma_pagamento_cd_forma_pagamento</t>
+  </si>
+  <si>
+    <t>pk_pagamento_id_pagamento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,12 +473,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFA6A6A6"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -553,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -574,86 +607,78 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,9 +699,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -714,7 +739,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -820,7 +845,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -962,7 +987,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -970,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A588904-58D6-4340-A48F-92FCD18181A8}">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105:H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,47 +1012,47 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1048,10 +1073,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1070,10 +1095,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1090,92 +1115,98 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="A9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1196,10 +1227,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1218,10 +1249,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1238,10 +1269,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1260,22 +1291,22 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1285,57 +1316,73 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="14"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="14"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
         <v>4</v>
       </c>
@@ -1356,10 +1403,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1378,10 +1425,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1398,10 +1445,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="1" t="s">
         <v>40</v>
       </c>
@@ -1418,10 +1465,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1438,10 +1485,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="4" t="s">
         <v>46</v>
       </c>
@@ -1458,10 +1505,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
@@ -1480,22 +1527,22 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
@@ -1505,73 +1552,105 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="7"/>
+      <c r="A37" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
+      <c r="F37" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="14"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="14"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="2" t="s">
         <v>4</v>
       </c>
@@ -1592,32 +1671,32 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29" t="s">
+      <c r="E44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="14"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="4" t="s">
         <v>11</v>
       </c>
@@ -1634,10 +1713,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="4" t="s">
         <v>8</v>
       </c>
@@ -1654,10 +1733,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="4" t="s">
         <v>56</v>
       </c>
@@ -1674,10 +1753,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -1694,10 +1773,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="4" t="s">
         <v>56</v>
       </c>
@@ -1714,10 +1793,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="25"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="6" t="s">
         <v>66</v>
       </c>
@@ -1734,22 +1813,22 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="12"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
@@ -1759,73 +1838,89 @@
       <c r="E52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53" s="28"/>
+      <c r="A53" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="11"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="7"/>
-      <c r="F53" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="G53" s="27"/>
-      <c r="H53" s="32"/>
+      <c r="F53" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="14"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="23"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="14"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="23"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="23"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="2" t="s">
         <v>4</v>
       </c>
@@ -1846,10 +1941,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="1" t="s">
         <v>72</v>
       </c>
@@ -1868,10 +1963,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="1" t="s">
         <v>76</v>
       </c>
@@ -1888,10 +1983,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
@@ -1910,10 +2005,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
@@ -1932,22 +2027,22 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="20"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="12"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
@@ -1957,73 +2052,89 @@
       <c r="E65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="7"/>
+      <c r="A66" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E66" s="7"/>
-      <c r="F66" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
+      <c r="F66" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="14"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="14"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="23"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="23"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="12"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="2" t="s">
         <v>4</v>
       </c>
@@ -2044,10 +2155,10 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="9"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="1" t="s">
         <v>8</v>
       </c>
@@ -2066,10 +2177,10 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="9"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="1" t="s">
         <v>8</v>
       </c>
@@ -2088,10 +2199,10 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="9"/>
+      <c r="B75" s="17"/>
       <c r="C75" s="1" t="s">
         <v>72</v>
       </c>
@@ -2110,10 +2221,10 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="1" t="s">
         <v>87</v>
       </c>
@@ -2131,10 +2242,10 @@
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="1" t="s">
         <v>87</v>
       </c>
@@ -2151,10 +2262,10 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="1" t="s">
         <v>92</v>
       </c>
@@ -2171,10 +2282,10 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
+      <c r="A79" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B79" s="26"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="1" t="s">
         <v>8</v>
       </c>
@@ -2193,22 +2304,22 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="20"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="12"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
@@ -2218,73 +2329,105 @@
       <c r="E81" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F81" s="12" t="s">
+      <c r="F81" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
+      <c r="A82" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="27"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="27"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="14"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="23"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="14"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="23"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="23"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="12"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="2" t="s">
         <v>4</v>
       </c>
@@ -2305,10 +2448,10 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="9"/>
+      <c r="B89" s="17"/>
       <c r="C89" s="1" t="s">
         <v>8</v>
       </c>
@@ -2327,10 +2470,10 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B90" s="9"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="1" t="s">
         <v>56</v>
       </c>
@@ -2347,22 +2490,22 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="20"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="12"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
@@ -2372,57 +2515,73 @@
       <c r="E92" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="F92" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="14"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="23"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="14"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="23"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="23"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="12"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="2" t="s">
         <v>4</v>
       </c>
@@ -2443,10 +2602,10 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="9"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="1" t="s">
         <v>8</v>
       </c>
@@ -2465,10 +2624,10 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="9"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="1" t="s">
         <v>8</v>
       </c>
@@ -2487,10 +2646,10 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="9"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="1" t="s">
         <v>92</v>
       </c>
@@ -2507,22 +2666,22 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="19"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="20"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B104" s="12"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
@@ -2532,31 +2691,101 @@
       <c r="E104" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F104" s="12" t="s">
+      <c r="F104" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="A92:B92"/>
+  <mergeCells count="118">
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
     <mergeCell ref="F92:H92"/>
     <mergeCell ref="B96:H96"/>
     <mergeCell ref="B97:H97"/>
@@ -2566,6 +2795,18 @@
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="A91:H91"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A92:B92"/>
     <mergeCell ref="A80:H80"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="F81:H81"/>
@@ -2576,13 +2817,11 @@
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="F66:H66"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:H64"/>
     <mergeCell ref="A65:B65"/>
@@ -2594,50 +2833,6 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A51:H51"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="F8:H8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
